--- a/Data/Output/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Data/Output/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\UIPATH\UI_Binaria_KenConstante\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9859D20F-4727-467F-964B-9D67564464F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CA21A-0814-41F6-8C43-3E3A6DADD51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A758BD85-0717-4448-9B27-3BBE32695C13}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A758BD85-0717-4448-9B27-3BBE32695C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$H$301</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,28 +38,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6470,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A70418D-DF36-48AC-82C4-047002F9E440}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21006,6 +20988,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I501" xr:uid="{4A70418D-DF36-48AC-82C4-047002F9E440}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21014,8 +20997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C9EC7C-801C-4F0A-A55B-2907C798F0FA}">
   <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K301"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21045,8 +21028,8 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="e" cm="1">
-        <f t="array" ref="K1">VLOOKUP(C1,A1:H301,Hoja1!F2:F501)</f>
+      <c r="K1" t="e">
+        <f>VLOOKUP(C1,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21075,8 +21058,8 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="e" cm="1">
-        <f t="array" ref="K2">VLOOKUP(C2,A2:H302,Hoja1!F3:F502)</f>
+      <c r="K2" t="e">
+        <f>VLOOKUP(C2,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21105,8 +21088,8 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="e" cm="1">
-        <f t="array" ref="K3">VLOOKUP(C3,A3:H303,Hoja1!F4:F503)</f>
+      <c r="K3" t="e">
+        <f>VLOOKUP(C3,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21135,8 +21118,8 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="e" cm="1">
-        <f t="array" ref="K4">VLOOKUP(C4,A4:H304,Hoja1!F5:F504)</f>
+      <c r="K4" t="e">
+        <f>VLOOKUP(C4,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21165,8 +21148,8 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="e" cm="1">
-        <f t="array" ref="K5">VLOOKUP(C5,A5:H305,Hoja1!F6:F505)</f>
+      <c r="K5" t="e">
+        <f>VLOOKUP(C5,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21195,8 +21178,8 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="e" cm="1">
-        <f t="array" ref="K6">VLOOKUP(C6,A6:H306,Hoja1!F7:F506)</f>
+      <c r="K6" t="e">
+        <f>VLOOKUP(C6,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21225,8 +21208,8 @@
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="e" cm="1">
-        <f t="array" ref="K7">VLOOKUP(C7,A7:H307,Hoja1!F8:F507)</f>
+      <c r="K7" t="e">
+        <f>VLOOKUP(C7,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21255,8 +21238,8 @@
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="e" cm="1">
-        <f t="array" ref="K8">VLOOKUP(C8,A8:H308,Hoja1!F9:F508)</f>
+      <c r="K8" t="e">
+        <f>VLOOKUP(C8,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21285,8 +21268,8 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="e" cm="1">
-        <f t="array" ref="K9">VLOOKUP(C9,A9:H309,Hoja1!F10:F509)</f>
+      <c r="K9" t="e">
+        <f>VLOOKUP(C9,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21315,8 +21298,8 @@
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="e" cm="1">
-        <f t="array" ref="K10">VLOOKUP(C10,A10:H310,Hoja1!F11:F510)</f>
+      <c r="K10" t="e">
+        <f>VLOOKUP(C10,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21345,8 +21328,8 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="e" cm="1">
-        <f t="array" ref="K11">VLOOKUP(C11,A11:H311,Hoja1!F12:F511)</f>
+      <c r="K11" t="e">
+        <f>VLOOKUP(C11,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21375,8 +21358,8 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="e" cm="1">
-        <f t="array" ref="K12">VLOOKUP(C12,A12:H312,Hoja1!F13:F512)</f>
+      <c r="K12" t="e">
+        <f>VLOOKUP(C12,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21405,8 +21388,8 @@
       <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="e" cm="1">
-        <f t="array" ref="K13">VLOOKUP(C13,A13:H313,Hoja1!F14:F513)</f>
+      <c r="K13" t="e">
+        <f>VLOOKUP(C13,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21435,8 +21418,8 @@
       <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="e" cm="1">
-        <f t="array" ref="K14">VLOOKUP(C14,A14:H314,Hoja1!F15:F514)</f>
+      <c r="K14" t="e">
+        <f>VLOOKUP(C14,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21465,8 +21448,8 @@
       <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="e" cm="1">
-        <f t="array" ref="K15">VLOOKUP(C15,A15:H315,Hoja1!F16:F515)</f>
+      <c r="K15" t="e">
+        <f>VLOOKUP(C15,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21495,8 +21478,8 @@
       <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" t="e" cm="1">
-        <f t="array" ref="K16">VLOOKUP(C16,A16:H316,Hoja1!F17:F516)</f>
+      <c r="K16" t="e">
+        <f>VLOOKUP(C16,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21525,8 +21508,8 @@
       <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" t="e" cm="1">
-        <f t="array" ref="K17">VLOOKUP(C17,A17:H317,Hoja1!F18:F517)</f>
+      <c r="K17" t="e">
+        <f>VLOOKUP(C17,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21555,8 +21538,8 @@
       <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" t="e" cm="1">
-        <f t="array" ref="K18">VLOOKUP(C18,A18:H318,Hoja1!F19:F518)</f>
+      <c r="K18" t="e">
+        <f>VLOOKUP(C18,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21585,8 +21568,8 @@
       <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" t="e" cm="1">
-        <f t="array" ref="K19">VLOOKUP(C19,A19:H319,Hoja1!F20:F519)</f>
+      <c r="K19" t="e">
+        <f>VLOOKUP(C19,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21615,9 +21598,9 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="K20" t="e" cm="1">
-        <f t="array" ref="K20">VLOOKUP(C20,A20:H320,Hoja1!F21:F520)</f>
-        <v>#N/A</v>
+      <c r="K20" t="str">
+        <f>VLOOKUP(C20,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Charleston;WV</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -21645,8 +21628,8 @@
       <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="K21" t="e" cm="1">
-        <f t="array" ref="K21">VLOOKUP(C21,A21:H321,Hoja1!F22:F521)</f>
+      <c r="K21" t="e">
+        <f>VLOOKUP(C21,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21675,9 +21658,9 @@
       <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" t="e" cm="1">
-        <f t="array" ref="K22">VLOOKUP(C22,A22:H322,Hoja1!F23:F522)</f>
-        <v>#N/A</v>
+      <c r="K22" t="str">
+        <f>VLOOKUP(C22,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Abilene;TX</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -21705,8 +21688,8 @@
       <c r="H23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" t="e" cm="1">
-        <f t="array" ref="K23">VLOOKUP(C23,A23:H323,Hoja1!F24:F523)</f>
+      <c r="K23" t="e">
+        <f>VLOOKUP(C23,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21735,8 +21718,8 @@
       <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" t="e" cm="1">
-        <f t="array" ref="K24">VLOOKUP(C24,A24:H324,Hoja1!F25:F524)</f>
+      <c r="K24" t="e">
+        <f>VLOOKUP(C24,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21765,9 +21748,9 @@
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="K25" t="e" cm="1">
-        <f t="array" ref="K25">VLOOKUP(C25,A25:H325,Hoja1!F26:F525)</f>
-        <v>#N/A</v>
+      <c r="K25" t="str">
+        <f>VLOOKUP(C25,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Roanoke;VA</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -21795,8 +21778,8 @@
       <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" t="e" cm="1">
-        <f t="array" ref="K26">VLOOKUP(C26,A26:H326,Hoja1!F27:F526)</f>
+      <c r="K26" t="e">
+        <f>VLOOKUP(C26,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21825,8 +21808,8 @@
       <c r="H27" t="s">
         <v>15</v>
       </c>
-      <c r="K27" t="e" cm="1">
-        <f t="array" ref="K27">VLOOKUP(C27,A27:H327,Hoja1!F28:F527)</f>
+      <c r="K27" t="e">
+        <f>VLOOKUP(C27,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21855,8 +21838,8 @@
       <c r="H28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" t="e" cm="1">
-        <f t="array" ref="K28">VLOOKUP(C28,A28:H328,Hoja1!F29:F528)</f>
+      <c r="K28" t="e">
+        <f>VLOOKUP(C28,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21885,8 +21868,8 @@
       <c r="H29" t="s">
         <v>15</v>
       </c>
-      <c r="K29" t="e" cm="1">
-        <f t="array" ref="K29">VLOOKUP(C29,A29:H329,Hoja1!F30:F529)</f>
+      <c r="K29" t="e">
+        <f>VLOOKUP(C29,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21915,8 +21898,8 @@
       <c r="H30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" t="e" cm="1">
-        <f t="array" ref="K30">VLOOKUP(C30,A30:H330,Hoja1!F31:F530)</f>
+      <c r="K30" t="e">
+        <f>VLOOKUP(C30,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21945,8 +21928,8 @@
       <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" t="e" cm="1">
-        <f t="array" ref="K31">VLOOKUP(C31,A31:H331,Hoja1!F32:F531)</f>
+      <c r="K31" t="e">
+        <f>VLOOKUP(C31,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21975,9 +21958,9 @@
       <c r="H32" t="s">
         <v>15</v>
       </c>
-      <c r="K32" t="e" cm="1">
-        <f t="array" ref="K32">VLOOKUP(C32,A32:H332,Hoja1!F33:F532)</f>
-        <v>#N/A</v>
+      <c r="K32" t="str">
+        <f>VLOOKUP(C32,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Seattle;WA</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -22005,8 +21988,8 @@
       <c r="H33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" t="e" cm="1">
-        <f t="array" ref="K33">VLOOKUP(C33,A33:H333,Hoja1!F34:F533)</f>
+      <c r="K33" t="e">
+        <f>VLOOKUP(C33,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22035,9 +22018,9 @@
       <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="K34" t="e" cm="1">
-        <f t="array" ref="K34">VLOOKUP(C34,A34:H334,Hoja1!F35:F534)</f>
-        <v>#N/A</v>
+      <c r="K34" t="str">
+        <f>VLOOKUP(C34,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Kansas City;MO</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -22065,8 +22048,8 @@
       <c r="H35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" t="e" cm="1">
-        <f t="array" ref="K35">VLOOKUP(C35,A35:H335,Hoja1!F36:F535)</f>
+      <c r="K35" t="e">
+        <f>VLOOKUP(C35,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22095,8 +22078,8 @@
       <c r="H36" t="s">
         <v>15</v>
       </c>
-      <c r="K36" t="e" cm="1">
-        <f t="array" ref="K36">VLOOKUP(C36,A36:H336,Hoja1!F37:F536)</f>
+      <c r="K36" t="e">
+        <f>VLOOKUP(C36,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22125,8 +22108,8 @@
       <c r="H37" t="s">
         <v>15</v>
       </c>
-      <c r="K37" t="e" cm="1">
-        <f t="array" ref="K37">VLOOKUP(C37,A37:H337,Hoja1!F38:F537)</f>
+      <c r="K37" t="e">
+        <f>VLOOKUP(C37,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22155,8 +22138,8 @@
       <c r="H38" t="s">
         <v>15</v>
       </c>
-      <c r="K38" t="e" cm="1">
-        <f t="array" ref="K38">VLOOKUP(C38,A38:H338,Hoja1!F39:F538)</f>
+      <c r="K38" t="e">
+        <f>VLOOKUP(C38,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22185,8 +22168,8 @@
       <c r="H39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" t="e" cm="1">
-        <f t="array" ref="K39">VLOOKUP(C39,A39:H339,Hoja1!F40:F539)</f>
+      <c r="K39" t="e">
+        <f>VLOOKUP(C39,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22215,9 +22198,9 @@
       <c r="H40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" t="e" cm="1">
-        <f t="array" ref="K40">VLOOKUP(C40,A40:H340,Hoja1!F41:F540)</f>
-        <v>#N/A</v>
+      <c r="K40" t="str">
+        <f>VLOOKUP(C40,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Dallas;TX</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -22245,8 +22228,8 @@
       <c r="H41" t="s">
         <v>15</v>
       </c>
-      <c r="K41" t="e" cm="1">
-        <f t="array" ref="K41">VLOOKUP(C41,A41:H341,Hoja1!F42:F541)</f>
+      <c r="K41" t="e">
+        <f>VLOOKUP(C41,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22275,9 +22258,9 @@
       <c r="H42" t="s">
         <v>15</v>
       </c>
-      <c r="K42" t="e" cm="1">
-        <f t="array" ref="K42">VLOOKUP(C42,A42:H342,Hoja1!F43:F542)</f>
-        <v>#N/A</v>
+      <c r="K42" t="str">
+        <f>VLOOKUP(C42,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Saint Paul;MN</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -22305,9 +22288,9 @@
       <c r="H43" t="s">
         <v>15</v>
       </c>
-      <c r="K43" t="e" cm="1">
-        <f t="array" ref="K43">VLOOKUP(C43,A43:H343,Hoja1!F44:F543)</f>
-        <v>#N/A</v>
+      <c r="K43" t="str">
+        <f>VLOOKUP(C43,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Peoria;IL</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -22335,8 +22318,8 @@
       <c r="H44" t="s">
         <v>15</v>
       </c>
-      <c r="K44" t="e" cm="1">
-        <f t="array" ref="K44">VLOOKUP(C44,A44:H344,Hoja1!F45:F544)</f>
+      <c r="K44" t="e">
+        <f>VLOOKUP(C44,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22365,8 +22348,8 @@
       <c r="H45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" t="e" cm="1">
-        <f t="array" ref="K45">VLOOKUP(C45,A45:H345,Hoja1!F46:F545)</f>
+      <c r="K45" t="e">
+        <f>VLOOKUP(C45,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22395,9 +22378,9 @@
       <c r="H46" t="s">
         <v>15</v>
       </c>
-      <c r="K46" t="e" cm="1">
-        <f t="array" ref="K46">VLOOKUP(C46,A46:H346,Hoja1!F47:F546)</f>
-        <v>#N/A</v>
+      <c r="K46" t="str">
+        <f>VLOOKUP(C46,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Chicago;IL</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -22425,8 +22408,8 @@
       <c r="H47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" t="e" cm="1">
-        <f t="array" ref="K47">VLOOKUP(C47,A47:H347,Hoja1!F48:F547)</f>
+      <c r="K47" t="e">
+        <f>VLOOKUP(C47,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22455,8 +22438,8 @@
       <c r="H48" t="s">
         <v>15</v>
       </c>
-      <c r="K48" t="e" cm="1">
-        <f t="array" ref="K48">VLOOKUP(C48,A48:H348,Hoja1!F49:F548)</f>
+      <c r="K48" t="e">
+        <f>VLOOKUP(C48,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22485,8 +22468,8 @@
       <c r="H49" t="s">
         <v>15</v>
       </c>
-      <c r="K49" t="e" cm="1">
-        <f t="array" ref="K49">VLOOKUP(C49,A49:H349,Hoja1!F50:F549)</f>
+      <c r="K49" t="e">
+        <f>VLOOKUP(C49,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22515,8 +22498,8 @@
       <c r="H50" t="s">
         <v>15</v>
       </c>
-      <c r="K50" t="e" cm="1">
-        <f t="array" ref="K50">VLOOKUP(C50,A50:H350,Hoja1!F51:F550)</f>
+      <c r="K50" t="e">
+        <f>VLOOKUP(C50,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22545,8 +22528,8 @@
       <c r="H51" t="s">
         <v>15</v>
       </c>
-      <c r="K51" t="e" cm="1">
-        <f t="array" ref="K51">VLOOKUP(C51,A51:H351,Hoja1!F52:F551)</f>
+      <c r="K51" t="e">
+        <f>VLOOKUP(C51,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22575,8 +22558,8 @@
       <c r="H52" t="s">
         <v>15</v>
       </c>
-      <c r="K52" t="e" cm="1">
-        <f t="array" ref="K52">VLOOKUP(C52,A52:H352,Hoja1!F53:F552)</f>
+      <c r="K52" t="e">
+        <f>VLOOKUP(C52,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22605,8 +22588,8 @@
       <c r="H53" t="s">
         <v>15</v>
       </c>
-      <c r="K53" t="e" cm="1">
-        <f t="array" ref="K53">VLOOKUP(C53,A53:H353,Hoja1!F54:F553)</f>
+      <c r="K53" t="e">
+        <f>VLOOKUP(C53,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22635,9 +22618,9 @@
       <c r="H54" t="s">
         <v>15</v>
       </c>
-      <c r="K54" t="e" cm="1">
-        <f t="array" ref="K54">VLOOKUP(C54,A54:H354,Hoja1!F55:F554)</f>
-        <v>#N/A</v>
+      <c r="K54" t="str">
+        <f>VLOOKUP(C54,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Richmond;CA</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -22665,8 +22648,8 @@
       <c r="H55" t="s">
         <v>15</v>
       </c>
-      <c r="K55" t="e" cm="1">
-        <f t="array" ref="K55">VLOOKUP(C55,A55:H355,Hoja1!F56:F555)</f>
+      <c r="K55" t="e">
+        <f>VLOOKUP(C55,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22695,8 +22678,8 @@
       <c r="H56" t="s">
         <v>15</v>
       </c>
-      <c r="K56" t="e" cm="1">
-        <f t="array" ref="K56">VLOOKUP(C56,A56:H356,Hoja1!F57:F556)</f>
+      <c r="K56" t="e">
+        <f>VLOOKUP(C56,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22725,9 +22708,9 @@
       <c r="H57" t="s">
         <v>15</v>
       </c>
-      <c r="K57" t="e" cm="1">
-        <f t="array" ref="K57">VLOOKUP(C57,A57:H357,Hoja1!F58:F557)</f>
-        <v>#N/A</v>
+      <c r="K57" t="str">
+        <f>VLOOKUP(C57,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Raleigh;NC</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -22755,8 +22738,8 @@
       <c r="H58" t="s">
         <v>15</v>
       </c>
-      <c r="K58" t="e" cm="1">
-        <f t="array" ref="K58">VLOOKUP(C58,A58:H358,Hoja1!F59:F558)</f>
+      <c r="K58" t="e">
+        <f>VLOOKUP(C58,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22785,9 +22768,9 @@
       <c r="H59" t="s">
         <v>15</v>
       </c>
-      <c r="K59" t="e" cm="1">
-        <f t="array" ref="K59">VLOOKUP(C59,A59:H359,Hoja1!F60:F559)</f>
-        <v>#N/A</v>
+      <c r="K59" t="str">
+        <f>VLOOKUP(C59,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Atlanta;GA</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -22815,8 +22798,8 @@
       <c r="H60" t="s">
         <v>15</v>
       </c>
-      <c r="K60" t="e" cm="1">
-        <f t="array" ref="K60">VLOOKUP(C60,A60:H360,Hoja1!F61:F560)</f>
+      <c r="K60" t="e">
+        <f>VLOOKUP(C60,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22845,8 +22828,8 @@
       <c r="H61" t="s">
         <v>15</v>
       </c>
-      <c r="K61" t="e" cm="1">
-        <f t="array" ref="K61">VLOOKUP(C61,A61:H361,Hoja1!F62:F561)</f>
+      <c r="K61" t="e">
+        <f>VLOOKUP(C61,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22875,9 +22858,9 @@
       <c r="H62" t="s">
         <v>15</v>
       </c>
-      <c r="K62" t="e" cm="1">
-        <f t="array" ref="K62">VLOOKUP(C62,A62:H362,Hoja1!F63:F562)</f>
-        <v>#N/A</v>
+      <c r="K62" t="str">
+        <f>VLOOKUP(C62,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Akron;OH</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -22905,8 +22888,8 @@
       <c r="H63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" t="e" cm="1">
-        <f t="array" ref="K63">VLOOKUP(C63,A63:H363,Hoja1!F64:F563)</f>
+      <c r="K63" t="e">
+        <f>VLOOKUP(C63,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22935,8 +22918,8 @@
       <c r="H64" t="s">
         <v>15</v>
       </c>
-      <c r="K64" t="e" cm="1">
-        <f t="array" ref="K64">VLOOKUP(C64,A64:H364,Hoja1!F65:F564)</f>
+      <c r="K64" t="e">
+        <f>VLOOKUP(C64,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22965,8 +22948,8 @@
       <c r="H65" t="s">
         <v>15</v>
       </c>
-      <c r="K65" t="e" cm="1">
-        <f t="array" ref="K65">VLOOKUP(C65,A65:H365,Hoja1!F66:F565)</f>
+      <c r="K65" t="e">
+        <f>VLOOKUP(C65,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22995,8 +22978,8 @@
       <c r="H66" t="s">
         <v>15</v>
       </c>
-      <c r="K66" t="e" cm="1">
-        <f t="array" ref="K66">VLOOKUP(C66,A66:H366,Hoja1!F67:F566)</f>
+      <c r="K66" t="e">
+        <f>VLOOKUP(C66,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23025,8 +23008,8 @@
       <c r="H67" t="s">
         <v>15</v>
       </c>
-      <c r="K67" t="e" cm="1">
-        <f t="array" ref="K67">VLOOKUP(C67,A67:H367,Hoja1!F68:F567)</f>
+      <c r="K67" t="e">
+        <f>VLOOKUP(C67,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23055,8 +23038,8 @@
       <c r="H68" t="s">
         <v>15</v>
       </c>
-      <c r="K68" t="e" cm="1">
-        <f t="array" ref="K68">VLOOKUP(C68,A68:H368,Hoja1!F69:F568)</f>
+      <c r="K68" t="e">
+        <f>VLOOKUP(C68,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23085,8 +23068,8 @@
       <c r="H69" t="s">
         <v>15</v>
       </c>
-      <c r="K69" t="e" cm="1">
-        <f t="array" ref="K69">VLOOKUP(C69,A69:H369,Hoja1!F70:F569)</f>
+      <c r="K69" t="e">
+        <f>VLOOKUP(C69,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23115,9 +23098,9 @@
       <c r="H70" t="s">
         <v>15</v>
       </c>
-      <c r="K70" t="e" cm="1">
-        <f t="array" ref="K70">VLOOKUP(C70,A70:H370,Hoja1!F71:F570)</f>
-        <v>#N/A</v>
+      <c r="K70" t="str">
+        <f>VLOOKUP(C70,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Tempe;AZ</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -23145,8 +23128,8 @@
       <c r="H71" t="s">
         <v>15</v>
       </c>
-      <c r="K71" t="e" cm="1">
-        <f t="array" ref="K71">VLOOKUP(C71,A71:H371,Hoja1!F72:F571)</f>
+      <c r="K71" t="e">
+        <f>VLOOKUP(C71,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23175,8 +23158,8 @@
       <c r="H72" t="s">
         <v>15</v>
       </c>
-      <c r="K72" t="e" cm="1">
-        <f t="array" ref="K72">VLOOKUP(C72,A72:H372,Hoja1!F73:F572)</f>
+      <c r="K72" t="e">
+        <f>VLOOKUP(C72,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23205,9 +23188,9 @@
       <c r="H73" t="s">
         <v>15</v>
       </c>
-      <c r="K73" t="e" cm="1">
-        <f t="array" ref="K73">VLOOKUP(C73,A73:H373,Hoja1!F74:F573)</f>
-        <v>#N/A</v>
+      <c r="K73" t="str">
+        <f>VLOOKUP(C73,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Las Vegas;NV</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -23235,8 +23218,8 @@
       <c r="H74" t="s">
         <v>15</v>
       </c>
-      <c r="K74" t="e" cm="1">
-        <f t="array" ref="K74">VLOOKUP(C74,A74:H374,Hoja1!F75:F574)</f>
+      <c r="K74" t="e">
+        <f>VLOOKUP(C74,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23265,8 +23248,8 @@
       <c r="H75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" t="e" cm="1">
-        <f t="array" ref="K75">VLOOKUP(C75,A75:H375,Hoja1!F76:F575)</f>
+      <c r="K75" t="e">
+        <f>VLOOKUP(C75,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23295,8 +23278,8 @@
       <c r="H76" t="s">
         <v>15</v>
       </c>
-      <c r="K76" t="e" cm="1">
-        <f t="array" ref="K76">VLOOKUP(C76,A76:H376,Hoja1!F77:F576)</f>
+      <c r="K76" t="e">
+        <f>VLOOKUP(C76,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23325,8 +23308,8 @@
       <c r="H77" t="s">
         <v>15</v>
       </c>
-      <c r="K77" t="e" cm="1">
-        <f t="array" ref="K77">VLOOKUP(C77,A77:H377,Hoja1!F78:F577)</f>
+      <c r="K77" t="e">
+        <f>VLOOKUP(C77,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23355,8 +23338,8 @@
       <c r="H78" t="s">
         <v>15</v>
       </c>
-      <c r="K78" t="e" cm="1">
-        <f t="array" ref="K78">VLOOKUP(C78,A78:H378,Hoja1!F79:F578)</f>
+      <c r="K78" t="e">
+        <f>VLOOKUP(C78,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23385,8 +23368,8 @@
       <c r="H79" t="s">
         <v>15</v>
       </c>
-      <c r="K79" t="e" cm="1">
-        <f t="array" ref="K79">VLOOKUP(C79,A79:H379,Hoja1!F80:F579)</f>
+      <c r="K79" t="e">
+        <f>VLOOKUP(C79,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23415,8 +23398,8 @@
       <c r="H80" t="s">
         <v>15</v>
       </c>
-      <c r="K80" t="e" cm="1">
-        <f t="array" ref="K80">VLOOKUP(C80,A80:H380,Hoja1!F81:F580)</f>
+      <c r="K80" t="e">
+        <f>VLOOKUP(C80,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23445,8 +23428,8 @@
       <c r="H81" t="s">
         <v>15</v>
       </c>
-      <c r="K81" t="e" cm="1">
-        <f t="array" ref="K81">VLOOKUP(C81,A81:H381,Hoja1!F82:F581)</f>
+      <c r="K81" t="e">
+        <f>VLOOKUP(C81,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23475,8 +23458,8 @@
       <c r="H82" t="s">
         <v>15</v>
       </c>
-      <c r="K82" t="e" cm="1">
-        <f t="array" ref="K82">VLOOKUP(C82,A82:H382,Hoja1!F83:F582)</f>
+      <c r="K82" t="e">
+        <f>VLOOKUP(C82,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23505,8 +23488,8 @@
       <c r="H83" t="s">
         <v>15</v>
       </c>
-      <c r="K83" t="e" cm="1">
-        <f t="array" ref="K83">VLOOKUP(C83,A83:H383,Hoja1!F84:F583)</f>
+      <c r="K83" t="e">
+        <f>VLOOKUP(C83,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23535,8 +23518,8 @@
       <c r="H84" t="s">
         <v>15</v>
       </c>
-      <c r="K84" t="e" cm="1">
-        <f t="array" ref="K84">VLOOKUP(C84,A84:H384,Hoja1!F85:F584)</f>
+      <c r="K84" t="e">
+        <f>VLOOKUP(C84,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23565,9 +23548,9 @@
       <c r="H85" t="s">
         <v>15</v>
       </c>
-      <c r="K85" t="e" cm="1">
-        <f t="array" ref="K85">VLOOKUP(C85,A85:H385,Hoja1!F86:F585)</f>
-        <v>#N/A</v>
+      <c r="K85" t="str">
+        <f>VLOOKUP(C85,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Suffolk;VA</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -23595,8 +23578,8 @@
       <c r="H86" t="s">
         <v>15</v>
       </c>
-      <c r="K86" t="e" cm="1">
-        <f t="array" ref="K86">VLOOKUP(C86,A86:H386,Hoja1!F87:F586)</f>
+      <c r="K86" t="e">
+        <f>VLOOKUP(C86,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23625,8 +23608,8 @@
       <c r="H87" t="s">
         <v>15</v>
       </c>
-      <c r="K87" t="e" cm="1">
-        <f t="array" ref="K87">VLOOKUP(C87,A87:H387,Hoja1!F88:F587)</f>
+      <c r="K87" t="e">
+        <f>VLOOKUP(C87,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23655,9 +23638,9 @@
       <c r="H88" t="s">
         <v>15</v>
       </c>
-      <c r="K88" t="e" cm="1">
-        <f t="array" ref="K88">VLOOKUP(C88,A88:H388,Hoja1!F89:F588)</f>
-        <v>#N/A</v>
+      <c r="K88" t="str">
+        <f>VLOOKUP(C88,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Littleton;CO</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -23685,8 +23668,8 @@
       <c r="H89" t="s">
         <v>15</v>
       </c>
-      <c r="K89" t="e" cm="1">
-        <f t="array" ref="K89">VLOOKUP(C89,A89:H389,Hoja1!F90:F589)</f>
+      <c r="K89" t="e">
+        <f>VLOOKUP(C89,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23715,8 +23698,8 @@
       <c r="H90" t="s">
         <v>15</v>
       </c>
-      <c r="K90" t="e" cm="1">
-        <f t="array" ref="K90">VLOOKUP(C90,A90:H390,Hoja1!F91:F590)</f>
+      <c r="K90" t="e">
+        <f>VLOOKUP(C90,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23745,8 +23728,8 @@
       <c r="H91" t="s">
         <v>15</v>
       </c>
-      <c r="K91" t="e" cm="1">
-        <f t="array" ref="K91">VLOOKUP(C91,A91:H391,Hoja1!F92:F591)</f>
+      <c r="K91" t="e">
+        <f>VLOOKUP(C91,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23775,8 +23758,8 @@
       <c r="H92" t="s">
         <v>15</v>
       </c>
-      <c r="K92" t="e" cm="1">
-        <f t="array" ref="K92">VLOOKUP(C92,A92:H392,Hoja1!F93:F592)</f>
+      <c r="K92" t="e">
+        <f>VLOOKUP(C92,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23805,8 +23788,8 @@
       <c r="H93" t="s">
         <v>15</v>
       </c>
-      <c r="K93" t="e" cm="1">
-        <f t="array" ref="K93">VLOOKUP(C93,A93:H393,Hoja1!F94:F593)</f>
+      <c r="K93" t="e">
+        <f>VLOOKUP(C93,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23835,8 +23818,8 @@
       <c r="H94" t="s">
         <v>15</v>
       </c>
-      <c r="K94" t="e" cm="1">
-        <f t="array" ref="K94">VLOOKUP(C94,A94:H394,Hoja1!F95:F594)</f>
+      <c r="K94" t="e">
+        <f>VLOOKUP(C94,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23865,8 +23848,8 @@
       <c r="H95" t="s">
         <v>15</v>
       </c>
-      <c r="K95" t="e" cm="1">
-        <f t="array" ref="K95">VLOOKUP(C95,A95:H395,Hoja1!F96:F595)</f>
+      <c r="K95" t="e">
+        <f>VLOOKUP(C95,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23895,8 +23878,8 @@
       <c r="H96" t="s">
         <v>15</v>
       </c>
-      <c r="K96" t="e" cm="1">
-        <f t="array" ref="K96">VLOOKUP(C96,A96:H396,Hoja1!F97:F596)</f>
+      <c r="K96" t="e">
+        <f>VLOOKUP(C96,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23925,8 +23908,8 @@
       <c r="H97" t="s">
         <v>15</v>
       </c>
-      <c r="K97" t="e" cm="1">
-        <f t="array" ref="K97">VLOOKUP(C97,A97:H397,Hoja1!F98:F597)</f>
+      <c r="K97" t="e">
+        <f>VLOOKUP(C97,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23955,9 +23938,9 @@
       <c r="H98" t="s">
         <v>15</v>
       </c>
-      <c r="K98" t="e" cm="1">
-        <f t="array" ref="K98">VLOOKUP(C98,A98:H398,Hoja1!F99:F598)</f>
-        <v>#N/A</v>
+      <c r="K98" t="str">
+        <f>VLOOKUP(C98,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Cincinnati;OH</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -23985,9 +23968,9 @@
       <c r="H99" t="s">
         <v>15</v>
       </c>
-      <c r="K99" t="e" cm="1">
-        <f t="array" ref="K99">VLOOKUP(C99,A99:H399,Hoja1!F100:F599)</f>
-        <v>#N/A</v>
+      <c r="K99" t="str">
+        <f>VLOOKUP(C99,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Rochester;NY</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -24015,9 +23998,9 @@
       <c r="H100" t="s">
         <v>15</v>
       </c>
-      <c r="K100" t="e" cm="1">
-        <f t="array" ref="K100">VLOOKUP(C100,A100:H400,Hoja1!F101:F600)</f>
-        <v>#N/A</v>
+      <c r="K100" t="str">
+        <f>VLOOKUP(C100,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Duluth;MN</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -24045,8 +24028,8 @@
       <c r="H101" t="s">
         <v>15</v>
       </c>
-      <c r="K101" t="e" cm="1">
-        <f t="array" ref="K101">VLOOKUP(C101,A101:H401,Hoja1!F102:F601)</f>
+      <c r="K101" t="e">
+        <f>VLOOKUP(C101,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24075,8 +24058,8 @@
       <c r="H102" t="s">
         <v>15</v>
       </c>
-      <c r="K102" t="e" cm="1">
-        <f t="array" ref="K102">VLOOKUP(C102,A102:H402,Hoja1!F103:F602)</f>
+      <c r="K102" t="e">
+        <f>VLOOKUP(C102,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24105,8 +24088,8 @@
       <c r="H103" t="s">
         <v>15</v>
       </c>
-      <c r="K103" t="e" cm="1">
-        <f t="array" ref="K103">VLOOKUP(C103,A103:H403,Hoja1!F104:F603)</f>
+      <c r="K103" t="e">
+        <f>VLOOKUP(C103,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24135,8 +24118,8 @@
       <c r="H104" t="s">
         <v>15</v>
       </c>
-      <c r="K104" t="e" cm="1">
-        <f t="array" ref="K104">VLOOKUP(C104,A104:H404,Hoja1!F105:F604)</f>
+      <c r="K104" t="e">
+        <f>VLOOKUP(C104,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24165,8 +24148,8 @@
       <c r="H105" t="s">
         <v>15</v>
       </c>
-      <c r="K105" t="e" cm="1">
-        <f t="array" ref="K105">VLOOKUP(C105,A105:H405,Hoja1!F106:F605)</f>
+      <c r="K105" t="e">
+        <f>VLOOKUP(C105,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24195,8 +24178,8 @@
       <c r="H106" t="s">
         <v>15</v>
       </c>
-      <c r="K106" t="e" cm="1">
-        <f t="array" ref="K106">VLOOKUP(C106,A106:H406,Hoja1!F107:F606)</f>
+      <c r="K106" t="e">
+        <f>VLOOKUP(C106,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24225,8 +24208,8 @@
       <c r="H107" t="s">
         <v>15</v>
       </c>
-      <c r="K107" t="e" cm="1">
-        <f t="array" ref="K107">VLOOKUP(C107,A107:H407,Hoja1!F108:F607)</f>
+      <c r="K107" t="e">
+        <f>VLOOKUP(C107,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24255,8 +24238,8 @@
       <c r="H108" t="s">
         <v>15</v>
       </c>
-      <c r="K108" t="e" cm="1">
-        <f t="array" ref="K108">VLOOKUP(C108,A108:H408,Hoja1!F109:F608)</f>
+      <c r="K108" t="e">
+        <f>VLOOKUP(C108,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24285,8 +24268,8 @@
       <c r="H109" t="s">
         <v>15</v>
       </c>
-      <c r="K109" t="e" cm="1">
-        <f t="array" ref="K109">VLOOKUP(C109,A109:H409,Hoja1!F110:F609)</f>
+      <c r="K109" t="e">
+        <f>VLOOKUP(C109,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24315,8 +24298,8 @@
       <c r="H110" t="s">
         <v>15</v>
       </c>
-      <c r="K110" t="e" cm="1">
-        <f t="array" ref="K110">VLOOKUP(C110,A110:H410,Hoja1!F111:F610)</f>
+      <c r="K110" t="e">
+        <f>VLOOKUP(C110,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24345,8 +24328,8 @@
       <c r="H111" t="s">
         <v>15</v>
       </c>
-      <c r="K111" t="e" cm="1">
-        <f t="array" ref="K111">VLOOKUP(C111,A111:H411,Hoja1!F112:F611)</f>
+      <c r="K111" t="e">
+        <f>VLOOKUP(C111,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24375,8 +24358,8 @@
       <c r="H112" t="s">
         <v>15</v>
       </c>
-      <c r="K112" t="e" cm="1">
-        <f t="array" ref="K112">VLOOKUP(C112,A112:H412,Hoja1!F113:F612)</f>
+      <c r="K112" t="e">
+        <f>VLOOKUP(C112,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24405,8 +24388,8 @@
       <c r="H113" t="s">
         <v>15</v>
       </c>
-      <c r="K113" t="e" cm="1">
-        <f t="array" ref="K113">VLOOKUP(C113,A113:H413,Hoja1!F114:F613)</f>
+      <c r="K113" t="e">
+        <f>VLOOKUP(C113,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24435,8 +24418,8 @@
       <c r="H114" t="s">
         <v>15</v>
       </c>
-      <c r="K114" t="e" cm="1">
-        <f t="array" ref="K114">VLOOKUP(C114,A114:H414,Hoja1!F115:F614)</f>
+      <c r="K114" t="e">
+        <f>VLOOKUP(C114,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24465,8 +24448,8 @@
       <c r="H115" t="s">
         <v>15</v>
       </c>
-      <c r="K115" t="e" cm="1">
-        <f t="array" ref="K115">VLOOKUP(C115,A115:H415,Hoja1!F116:F615)</f>
+      <c r="K115" t="e">
+        <f>VLOOKUP(C115,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24495,8 +24478,8 @@
       <c r="H116" t="s">
         <v>15</v>
       </c>
-      <c r="K116" t="e" cm="1">
-        <f t="array" ref="K116">VLOOKUP(C116,A116:H416,Hoja1!F117:F616)</f>
+      <c r="K116" t="e">
+        <f>VLOOKUP(C116,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24525,8 +24508,8 @@
       <c r="H117" t="s">
         <v>15</v>
       </c>
-      <c r="K117" t="e" cm="1">
-        <f t="array" ref="K117">VLOOKUP(C117,A117:H417,Hoja1!F118:F617)</f>
+      <c r="K117" t="e">
+        <f>VLOOKUP(C117,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24555,8 +24538,8 @@
       <c r="H118" t="s">
         <v>15</v>
       </c>
-      <c r="K118" t="e" cm="1">
-        <f t="array" ref="K118">VLOOKUP(C118,A118:H418,Hoja1!F119:F618)</f>
+      <c r="K118" t="e">
+        <f>VLOOKUP(C118,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24585,8 +24568,8 @@
       <c r="H119" t="s">
         <v>15</v>
       </c>
-      <c r="K119" t="e" cm="1">
-        <f t="array" ref="K119">VLOOKUP(C119,A119:H419,Hoja1!F120:F619)</f>
+      <c r="K119" t="e">
+        <f>VLOOKUP(C119,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24615,8 +24598,8 @@
       <c r="H120" t="s">
         <v>15</v>
       </c>
-      <c r="K120" t="e" cm="1">
-        <f t="array" ref="K120">VLOOKUP(C120,A120:H420,Hoja1!F121:F620)</f>
+      <c r="K120" t="e">
+        <f>VLOOKUP(C120,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24645,9 +24628,9 @@
       <c r="H121" t="s">
         <v>15</v>
       </c>
-      <c r="K121" t="e" cm="1">
-        <f t="array" ref="K121">VLOOKUP(C121,A121:H421,Hoja1!F122:F621)</f>
-        <v>#N/A</v>
+      <c r="K121" t="str">
+        <f>VLOOKUP(C121,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Tacoma;WA</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -24675,8 +24658,8 @@
       <c r="H122" t="s">
         <v>15</v>
       </c>
-      <c r="K122" t="e" cm="1">
-        <f t="array" ref="K122">VLOOKUP(C122,A122:H422,Hoja1!F123:F622)</f>
+      <c r="K122" t="e">
+        <f>VLOOKUP(C122,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24705,8 +24688,8 @@
       <c r="H123" t="s">
         <v>15</v>
       </c>
-      <c r="K123" t="e" cm="1">
-        <f t="array" ref="K123">VLOOKUP(C123,A123:H423,Hoja1!F124:F623)</f>
+      <c r="K123" t="e">
+        <f>VLOOKUP(C123,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24735,8 +24718,8 @@
       <c r="H124" t="s">
         <v>15</v>
       </c>
-      <c r="K124" t="e" cm="1">
-        <f t="array" ref="K124">VLOOKUP(C124,A124:H424,Hoja1!F125:F624)</f>
+      <c r="K124" t="e">
+        <f>VLOOKUP(C124,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24765,8 +24748,8 @@
       <c r="H125" t="s">
         <v>15</v>
       </c>
-      <c r="K125" t="e" cm="1">
-        <f t="array" ref="K125">VLOOKUP(C125,A125:H425,Hoja1!F126:F625)</f>
+      <c r="K125" t="e">
+        <f>VLOOKUP(C125,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24795,8 +24778,8 @@
       <c r="H126" t="s">
         <v>15</v>
       </c>
-      <c r="K126" t="e" cm="1">
-        <f t="array" ref="K126">VLOOKUP(C126,A126:H426,Hoja1!F127:F626)</f>
+      <c r="K126" t="e">
+        <f>VLOOKUP(C126,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24825,8 +24808,8 @@
       <c r="H127" t="s">
         <v>15</v>
       </c>
-      <c r="K127" t="e" cm="1">
-        <f t="array" ref="K127">VLOOKUP(C127,A127:H427,Hoja1!F128:F627)</f>
+      <c r="K127" t="e">
+        <f>VLOOKUP(C127,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24855,8 +24838,8 @@
       <c r="H128" t="s">
         <v>15</v>
       </c>
-      <c r="K128" t="e" cm="1">
-        <f t="array" ref="K128">VLOOKUP(C128,A128:H428,Hoja1!F129:F628)</f>
+      <c r="K128" t="e">
+        <f>VLOOKUP(C128,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24885,8 +24868,8 @@
       <c r="H129" t="s">
         <v>15</v>
       </c>
-      <c r="K129" t="e" cm="1">
-        <f t="array" ref="K129">VLOOKUP(C129,A129:H429,Hoja1!F130:F629)</f>
+      <c r="K129" t="e">
+        <f>VLOOKUP(C129,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24915,8 +24898,8 @@
       <c r="H130" t="s">
         <v>15</v>
       </c>
-      <c r="K130" t="e" cm="1">
-        <f t="array" ref="K130">VLOOKUP(C130,A130:H430,Hoja1!F131:F630)</f>
+      <c r="K130" t="e">
+        <f>VLOOKUP(C130,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24945,8 +24928,8 @@
       <c r="H131" t="s">
         <v>15</v>
       </c>
-      <c r="K131" t="e" cm="1">
-        <f t="array" ref="K131">VLOOKUP(C131,A131:H431,Hoja1!F132:F631)</f>
+      <c r="K131" t="e">
+        <f>VLOOKUP(C131,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -24975,8 +24958,8 @@
       <c r="H132" t="s">
         <v>15</v>
       </c>
-      <c r="K132" t="e" cm="1">
-        <f t="array" ref="K132">VLOOKUP(C132,A132:H432,Hoja1!F133:F632)</f>
+      <c r="K132" t="e">
+        <f>VLOOKUP(C132,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25005,8 +24988,8 @@
       <c r="H133" t="s">
         <v>15</v>
       </c>
-      <c r="K133" t="e" cm="1">
-        <f t="array" ref="K133">VLOOKUP(C133,A133:H433,Hoja1!F134:F633)</f>
+      <c r="K133" t="e">
+        <f>VLOOKUP(C133,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25035,8 +25018,8 @@
       <c r="H134" t="s">
         <v>15</v>
       </c>
-      <c r="K134" t="e" cm="1">
-        <f t="array" ref="K134">VLOOKUP(C134,A134:H434,Hoja1!F135:F634)</f>
+      <c r="K134" t="e">
+        <f>VLOOKUP(C134,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25065,8 +25048,8 @@
       <c r="H135" t="s">
         <v>15</v>
       </c>
-      <c r="K135" t="e" cm="1">
-        <f t="array" ref="K135">VLOOKUP(C135,A135:H435,Hoja1!F136:F635)</f>
+      <c r="K135" t="e">
+        <f>VLOOKUP(C135,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25095,8 +25078,8 @@
       <c r="H136" t="s">
         <v>15</v>
       </c>
-      <c r="K136" t="e" cm="1">
-        <f t="array" ref="K136">VLOOKUP(C136,A136:H436,Hoja1!F137:F636)</f>
+      <c r="K136" t="e">
+        <f>VLOOKUP(C136,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25125,8 +25108,8 @@
       <c r="H137" t="s">
         <v>15</v>
       </c>
-      <c r="K137" t="e" cm="1">
-        <f t="array" ref="K137">VLOOKUP(C137,A137:H437,Hoja1!F138:F637)</f>
+      <c r="K137" t="e">
+        <f>VLOOKUP(C137,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25155,8 +25138,8 @@
       <c r="H138" t="s">
         <v>15</v>
       </c>
-      <c r="K138" t="e" cm="1">
-        <f t="array" ref="K138">VLOOKUP(C138,A138:H438,Hoja1!F139:F638)</f>
+      <c r="K138" t="e">
+        <f>VLOOKUP(C138,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25185,8 +25168,8 @@
       <c r="H139" t="s">
         <v>15</v>
       </c>
-      <c r="K139" t="e" cm="1">
-        <f t="array" ref="K139">VLOOKUP(C139,A139:H439,Hoja1!F140:F639)</f>
+      <c r="K139" t="e">
+        <f>VLOOKUP(C139,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25215,8 +25198,8 @@
       <c r="H140" t="s">
         <v>15</v>
       </c>
-      <c r="K140" t="e" cm="1">
-        <f t="array" ref="K140">VLOOKUP(C140,A140:H440,Hoja1!F141:F640)</f>
+      <c r="K140" t="e">
+        <f>VLOOKUP(C140,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25245,8 +25228,8 @@
       <c r="H141" t="s">
         <v>15</v>
       </c>
-      <c r="K141" t="e" cm="1">
-        <f t="array" ref="K141">VLOOKUP(C141,A141:H441,Hoja1!F142:F641)</f>
+      <c r="K141" t="e">
+        <f>VLOOKUP(C141,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25275,9 +25258,9 @@
       <c r="H142" t="s">
         <v>15</v>
       </c>
-      <c r="K142" t="e" cm="1">
-        <f t="array" ref="K142">VLOOKUP(C142,A142:H442,Hoja1!F143:F642)</f>
-        <v>#N/A</v>
+      <c r="K142" t="str">
+        <f>VLOOKUP(C142,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Topeka;KS</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -25305,8 +25288,8 @@
       <c r="H143" t="s">
         <v>15</v>
       </c>
-      <c r="K143" t="e" cm="1">
-        <f t="array" ref="K143">VLOOKUP(C143,A143:H443,Hoja1!F144:F643)</f>
+      <c r="K143" t="e">
+        <f>VLOOKUP(C143,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25335,8 +25318,8 @@
       <c r="H144" t="s">
         <v>15</v>
       </c>
-      <c r="K144" t="e" cm="1">
-        <f t="array" ref="K144">VLOOKUP(C144,A144:H444,Hoja1!F145:F644)</f>
+      <c r="K144" t="e">
+        <f>VLOOKUP(C144,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25365,8 +25348,8 @@
       <c r="H145" t="s">
         <v>15</v>
       </c>
-      <c r="K145" t="e" cm="1">
-        <f t="array" ref="K145">VLOOKUP(C145,A145:H445,Hoja1!F146:F645)</f>
+      <c r="K145" t="e">
+        <f>VLOOKUP(C145,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25395,8 +25378,8 @@
       <c r="H146" t="s">
         <v>15</v>
       </c>
-      <c r="K146" t="e" cm="1">
-        <f t="array" ref="K146">VLOOKUP(C146,A146:H446,Hoja1!F147:F646)</f>
+      <c r="K146" t="e">
+        <f>VLOOKUP(C146,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25425,8 +25408,8 @@
       <c r="H147" t="s">
         <v>15</v>
       </c>
-      <c r="K147" t="e" cm="1">
-        <f t="array" ref="K147">VLOOKUP(C147,A147:H447,Hoja1!F148:F647)</f>
+      <c r="K147" t="e">
+        <f>VLOOKUP(C147,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25455,8 +25438,8 @@
       <c r="H148" t="s">
         <v>15</v>
       </c>
-      <c r="K148" t="e" cm="1">
-        <f t="array" ref="K148">VLOOKUP(C148,A148:H448,Hoja1!F149:F648)</f>
+      <c r="K148" t="e">
+        <f>VLOOKUP(C148,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25485,8 +25468,8 @@
       <c r="H149" t="s">
         <v>15</v>
       </c>
-      <c r="K149" t="e" cm="1">
-        <f t="array" ref="K149">VLOOKUP(C149,A149:H449,Hoja1!F150:F649)</f>
+      <c r="K149" t="e">
+        <f>VLOOKUP(C149,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25515,8 +25498,8 @@
       <c r="H150" t="s">
         <v>15</v>
       </c>
-      <c r="K150" t="e" cm="1">
-        <f t="array" ref="K150">VLOOKUP(C150,A150:H450,Hoja1!F151:F650)</f>
+      <c r="K150" t="e">
+        <f>VLOOKUP(C150,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25545,8 +25528,8 @@
       <c r="H151" t="s">
         <v>15</v>
       </c>
-      <c r="K151" t="e" cm="1">
-        <f t="array" ref="K151">VLOOKUP(C151,A151:H451,Hoja1!F152:F651)</f>
+      <c r="K151" t="e">
+        <f>VLOOKUP(C151,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25575,8 +25558,8 @@
       <c r="H152" t="s">
         <v>15</v>
       </c>
-      <c r="K152" t="e" cm="1">
-        <f t="array" ref="K152">VLOOKUP(C152,A152:H452,Hoja1!F153:F652)</f>
+      <c r="K152" t="e">
+        <f>VLOOKUP(C152,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25605,8 +25588,8 @@
       <c r="H153" t="s">
         <v>15</v>
       </c>
-      <c r="K153" t="e" cm="1">
-        <f t="array" ref="K153">VLOOKUP(C153,A153:H453,Hoja1!F154:F653)</f>
+      <c r="K153" t="e">
+        <f>VLOOKUP(C153,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25635,8 +25618,8 @@
       <c r="H154" t="s">
         <v>15</v>
       </c>
-      <c r="K154" t="e" cm="1">
-        <f t="array" ref="K154">VLOOKUP(C154,A154:H454,Hoja1!F155:F654)</f>
+      <c r="K154" t="e">
+        <f>VLOOKUP(C154,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25665,9 +25648,9 @@
       <c r="H155" t="s">
         <v>15</v>
       </c>
-      <c r="K155" t="e" cm="1">
-        <f t="array" ref="K155">VLOOKUP(C155,A155:H455,Hoja1!F156:F655)</f>
-        <v>#N/A</v>
+      <c r="K155" t="str">
+        <f>VLOOKUP(C155,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Saint Paul;MN</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -25695,9 +25678,9 @@
       <c r="H156" t="s">
         <v>15</v>
       </c>
-      <c r="K156" t="e" cm="1">
-        <f t="array" ref="K156">VLOOKUP(C156,A156:H456,Hoja1!F157:F656)</f>
-        <v>#N/A</v>
+      <c r="K156" t="str">
+        <f>VLOOKUP(C156,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Alexandria;VA</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -25725,8 +25708,8 @@
       <c r="H157" t="s">
         <v>15</v>
       </c>
-      <c r="K157" t="e" cm="1">
-        <f t="array" ref="K157">VLOOKUP(C157,A157:H457,Hoja1!F158:F657)</f>
+      <c r="K157" t="e">
+        <f>VLOOKUP(C157,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25755,8 +25738,8 @@
       <c r="H158" t="s">
         <v>15</v>
       </c>
-      <c r="K158" t="e" cm="1">
-        <f t="array" ref="K158">VLOOKUP(C158,A158:H458,Hoja1!F159:F658)</f>
+      <c r="K158" t="e">
+        <f>VLOOKUP(C158,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25785,8 +25768,8 @@
       <c r="H159" t="s">
         <v>15</v>
       </c>
-      <c r="K159" t="e" cm="1">
-        <f t="array" ref="K159">VLOOKUP(C159,A159:H459,Hoja1!F160:F659)</f>
+      <c r="K159" t="e">
+        <f>VLOOKUP(C159,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25815,9 +25798,9 @@
       <c r="H160" t="s">
         <v>15</v>
       </c>
-      <c r="K160" t="e" cm="1">
-        <f t="array" ref="K160">VLOOKUP(C160,A160:H460,Hoja1!F161:F660)</f>
-        <v>#N/A</v>
+      <c r="K160" t="str">
+        <f>VLOOKUP(C160,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>San Bernardino;CA</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -25845,8 +25828,8 @@
       <c r="H161" t="s">
         <v>15</v>
       </c>
-      <c r="K161" t="e" cm="1">
-        <f t="array" ref="K161">VLOOKUP(C161,A161:H461,Hoja1!F162:F661)</f>
+      <c r="K161" t="e">
+        <f>VLOOKUP(C161,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25875,8 +25858,8 @@
       <c r="H162" t="s">
         <v>15</v>
       </c>
-      <c r="K162" t="e" cm="1">
-        <f t="array" ref="K162">VLOOKUP(C162,A162:H462,Hoja1!F163:F662)</f>
+      <c r="K162" t="e">
+        <f>VLOOKUP(C162,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25905,9 +25888,9 @@
       <c r="H163" t="s">
         <v>15</v>
       </c>
-      <c r="K163" t="e" cm="1">
-        <f t="array" ref="K163">VLOOKUP(C163,A163:H463,Hoja1!F164:F663)</f>
-        <v>#N/A</v>
+      <c r="K163" t="str">
+        <f>VLOOKUP(C163,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Norfolk;VA</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -25935,9 +25918,9 @@
       <c r="H164" t="s">
         <v>15</v>
       </c>
-      <c r="K164" t="e" cm="1">
-        <f t="array" ref="K164">VLOOKUP(C164,A164:H464,Hoja1!F165:F664)</f>
-        <v>#N/A</v>
+      <c r="K164" t="str">
+        <f>VLOOKUP(C164,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Tulsa;OK</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -25965,8 +25948,8 @@
       <c r="H165" t="s">
         <v>15</v>
       </c>
-      <c r="K165" t="e" cm="1">
-        <f t="array" ref="K165">VLOOKUP(C165,A165:H465,Hoja1!F166:F665)</f>
+      <c r="K165" t="e">
+        <f>VLOOKUP(C165,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -25995,8 +25978,8 @@
       <c r="H166" t="s">
         <v>15</v>
       </c>
-      <c r="K166" t="e" cm="1">
-        <f t="array" ref="K166">VLOOKUP(C166,A166:H466,Hoja1!F167:F666)</f>
+      <c r="K166" t="e">
+        <f>VLOOKUP(C166,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26025,9 +26008,9 @@
       <c r="H167" t="s">
         <v>15</v>
       </c>
-      <c r="K167" t="e" cm="1">
-        <f t="array" ref="K167">VLOOKUP(C167,A167:H467,Hoja1!F168:F667)</f>
-        <v>#N/A</v>
+      <c r="K167" t="str">
+        <f>VLOOKUP(C167,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Memphis;TN</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -26055,8 +26038,8 @@
       <c r="H168" t="s">
         <v>15</v>
       </c>
-      <c r="K168" t="e" cm="1">
-        <f t="array" ref="K168">VLOOKUP(C168,A168:H468,Hoja1!F169:F668)</f>
+      <c r="K168" t="e">
+        <f>VLOOKUP(C168,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26085,8 +26068,8 @@
       <c r="H169" t="s">
         <v>15</v>
       </c>
-      <c r="K169" t="e" cm="1">
-        <f t="array" ref="K169">VLOOKUP(C169,A169:H469,Hoja1!F170:F669)</f>
+      <c r="K169" t="e">
+        <f>VLOOKUP(C169,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26115,8 +26098,8 @@
       <c r="H170" t="s">
         <v>15</v>
       </c>
-      <c r="K170" t="e" cm="1">
-        <f t="array" ref="K170">VLOOKUP(C170,A170:H470,Hoja1!F171:F670)</f>
+      <c r="K170" t="e">
+        <f>VLOOKUP(C170,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26145,8 +26128,8 @@
       <c r="H171" t="s">
         <v>15</v>
       </c>
-      <c r="K171" t="e" cm="1">
-        <f t="array" ref="K171">VLOOKUP(C171,A171:H471,Hoja1!F172:F671)</f>
+      <c r="K171" t="e">
+        <f>VLOOKUP(C171,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26175,8 +26158,8 @@
       <c r="H172" t="s">
         <v>15</v>
       </c>
-      <c r="K172" t="e" cm="1">
-        <f t="array" ref="K172">VLOOKUP(C172,A172:H472,Hoja1!F173:F672)</f>
+      <c r="K172" t="e">
+        <f>VLOOKUP(C172,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26205,8 +26188,8 @@
       <c r="H173" t="s">
         <v>15</v>
       </c>
-      <c r="K173" t="e" cm="1">
-        <f t="array" ref="K173">VLOOKUP(C173,A173:H473,Hoja1!F174:F673)</f>
+      <c r="K173" t="e">
+        <f>VLOOKUP(C173,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26235,8 +26218,8 @@
       <c r="H174" t="s">
         <v>15</v>
       </c>
-      <c r="K174" t="e" cm="1">
-        <f t="array" ref="K174">VLOOKUP(C174,A174:H474,Hoja1!F175:F674)</f>
+      <c r="K174" t="e">
+        <f>VLOOKUP(C174,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26265,8 +26248,8 @@
       <c r="H175" t="s">
         <v>15</v>
       </c>
-      <c r="K175" t="e" cm="1">
-        <f t="array" ref="K175">VLOOKUP(C175,A175:H475,Hoja1!F176:F675)</f>
+      <c r="K175" t="e">
+        <f>VLOOKUP(C175,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26295,8 +26278,8 @@
       <c r="H176" t="s">
         <v>15</v>
       </c>
-      <c r="K176" t="e" cm="1">
-        <f t="array" ref="K176">VLOOKUP(C176,A176:H476,Hoja1!F177:F676)</f>
+      <c r="K176" t="e">
+        <f>VLOOKUP(C176,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26325,8 +26308,8 @@
       <c r="H177" t="s">
         <v>15</v>
       </c>
-      <c r="K177" t="e" cm="1">
-        <f t="array" ref="K177">VLOOKUP(C177,A177:H477,Hoja1!F178:F677)</f>
+      <c r="K177" t="e">
+        <f>VLOOKUP(C177,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26355,8 +26338,8 @@
       <c r="H178" t="s">
         <v>15</v>
       </c>
-      <c r="K178" t="e" cm="1">
-        <f t="array" ref="K178">VLOOKUP(C178,A178:H478,Hoja1!F179:F678)</f>
+      <c r="K178" t="e">
+        <f>VLOOKUP(C178,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26385,8 +26368,8 @@
       <c r="H179" t="s">
         <v>15</v>
       </c>
-      <c r="K179" t="e" cm="1">
-        <f t="array" ref="K179">VLOOKUP(C179,A179:H479,Hoja1!F180:F679)</f>
+      <c r="K179" t="e">
+        <f>VLOOKUP(C179,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26415,8 +26398,8 @@
       <c r="H180" t="s">
         <v>15</v>
       </c>
-      <c r="K180" t="e" cm="1">
-        <f t="array" ref="K180">VLOOKUP(C180,A180:H480,Hoja1!F181:F680)</f>
+      <c r="K180" t="e">
+        <f>VLOOKUP(C180,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26445,9 +26428,9 @@
       <c r="H181" t="s">
         <v>15</v>
       </c>
-      <c r="K181" t="e" cm="1">
-        <f t="array" ref="K181">VLOOKUP(C181,A181:H481,Hoja1!F182:F681)</f>
-        <v>#N/A</v>
+      <c r="K181" t="str">
+        <f>VLOOKUP(C181,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>San Antonio;TX</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -26475,8 +26458,8 @@
       <c r="H182" t="s">
         <v>15</v>
       </c>
-      <c r="K182" t="e" cm="1">
-        <f t="array" ref="K182">VLOOKUP(C182,A182:H482,Hoja1!F183:F682)</f>
+      <c r="K182" t="e">
+        <f>VLOOKUP(C182,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26505,8 +26488,8 @@
       <c r="H183" t="s">
         <v>15</v>
       </c>
-      <c r="K183" t="e" cm="1">
-        <f t="array" ref="K183">VLOOKUP(C183,A183:H483,Hoja1!F184:F683)</f>
+      <c r="K183" t="e">
+        <f>VLOOKUP(C183,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26535,8 +26518,8 @@
       <c r="H184" t="s">
         <v>15</v>
       </c>
-      <c r="K184" t="e" cm="1">
-        <f t="array" ref="K184">VLOOKUP(C184,A184:H484,Hoja1!F185:F684)</f>
+      <c r="K184" t="e">
+        <f>VLOOKUP(C184,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26565,8 +26548,8 @@
       <c r="H185" t="s">
         <v>15</v>
       </c>
-      <c r="K185" t="e" cm="1">
-        <f t="array" ref="K185">VLOOKUP(C185,A185:H485,Hoja1!F186:F685)</f>
+      <c r="K185" t="e">
+        <f>VLOOKUP(C185,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26595,8 +26578,8 @@
       <c r="H186" t="s">
         <v>15</v>
       </c>
-      <c r="K186" t="e" cm="1">
-        <f t="array" ref="K186">VLOOKUP(C186,A186:H486,Hoja1!F187:F686)</f>
+      <c r="K186" t="e">
+        <f>VLOOKUP(C186,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26625,8 +26608,8 @@
       <c r="H187" t="s">
         <v>15</v>
       </c>
-      <c r="K187" t="e" cm="1">
-        <f t="array" ref="K187">VLOOKUP(C187,A187:H487,Hoja1!F188:F687)</f>
+      <c r="K187" t="e">
+        <f>VLOOKUP(C187,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26655,8 +26638,8 @@
       <c r="H188" t="s">
         <v>15</v>
       </c>
-      <c r="K188" t="e" cm="1">
-        <f t="array" ref="K188">VLOOKUP(C188,A188:H488,Hoja1!F189:F688)</f>
+      <c r="K188" t="e">
+        <f>VLOOKUP(C188,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26685,8 +26668,8 @@
       <c r="H189" t="s">
         <v>15</v>
       </c>
-      <c r="K189" t="e" cm="1">
-        <f t="array" ref="K189">VLOOKUP(C189,A189:H489,Hoja1!F190:F689)</f>
+      <c r="K189" t="e">
+        <f>VLOOKUP(C189,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26715,9 +26698,9 @@
       <c r="H190" t="s">
         <v>15</v>
       </c>
-      <c r="K190" t="e" cm="1">
-        <f t="array" ref="K190">VLOOKUP(C190,A190:H490,Hoja1!F191:F690)</f>
-        <v>#N/A</v>
+      <c r="K190" t="str">
+        <f>VLOOKUP(C190,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Brea;CA</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -26745,9 +26728,9 @@
       <c r="H191" t="s">
         <v>15</v>
       </c>
-      <c r="K191" t="e" cm="1">
-        <f t="array" ref="K191">VLOOKUP(C191,A191:H491,Hoja1!F192:F691)</f>
-        <v>#N/A</v>
+      <c r="K191" t="str">
+        <f>VLOOKUP(C191,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Saint Louis;MO</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -26775,8 +26758,8 @@
       <c r="H192" t="s">
         <v>15</v>
       </c>
-      <c r="K192" t="e" cm="1">
-        <f t="array" ref="K192">VLOOKUP(C192,A192:H492,Hoja1!F193:F692)</f>
+      <c r="K192" t="e">
+        <f>VLOOKUP(C192,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26805,8 +26788,8 @@
       <c r="H193" t="s">
         <v>15</v>
       </c>
-      <c r="K193" t="e" cm="1">
-        <f t="array" ref="K193">VLOOKUP(C193,A193:H493,Hoja1!F194:F693)</f>
+      <c r="K193" t="e">
+        <f>VLOOKUP(C193,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26835,8 +26818,8 @@
       <c r="H194" t="s">
         <v>15</v>
       </c>
-      <c r="K194" t="e" cm="1">
-        <f t="array" ref="K194">VLOOKUP(C194,A194:H494,Hoja1!F195:F694)</f>
+      <c r="K194" t="e">
+        <f>VLOOKUP(C194,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26865,8 +26848,8 @@
       <c r="H195" t="s">
         <v>15</v>
       </c>
-      <c r="K195" t="e" cm="1">
-        <f t="array" ref="K195">VLOOKUP(C195,A195:H495,Hoja1!F196:F695)</f>
+      <c r="K195" t="e">
+        <f>VLOOKUP(C195,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26895,8 +26878,8 @@
       <c r="H196" t="s">
         <v>15</v>
       </c>
-      <c r="K196" t="e" cm="1">
-        <f t="array" ref="K196">VLOOKUP(C196,A196:H496,Hoja1!F197:F696)</f>
+      <c r="K196" t="e">
+        <f>VLOOKUP(C196,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26925,8 +26908,8 @@
       <c r="H197" t="s">
         <v>15</v>
       </c>
-      <c r="K197" t="e" cm="1">
-        <f t="array" ref="K197">VLOOKUP(C197,A197:H497,Hoja1!F198:F697)</f>
+      <c r="K197" t="e">
+        <f>VLOOKUP(C197,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26955,8 +26938,8 @@
       <c r="H198" t="s">
         <v>15</v>
       </c>
-      <c r="K198" t="e" cm="1">
-        <f t="array" ref="K198">VLOOKUP(C198,A198:H498,Hoja1!F199:F698)</f>
+      <c r="K198" t="e">
+        <f>VLOOKUP(C198,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -26985,8 +26968,8 @@
       <c r="H199" t="s">
         <v>15</v>
       </c>
-      <c r="K199" t="e" cm="1">
-        <f t="array" ref="K199">VLOOKUP(C199,A199:H499,Hoja1!F200:F699)</f>
+      <c r="K199" t="e">
+        <f>VLOOKUP(C199,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27015,9 +26998,9 @@
       <c r="H200" t="s">
         <v>15</v>
       </c>
-      <c r="K200" t="e" cm="1">
-        <f t="array" ref="K200">VLOOKUP(C200,A200:H500,Hoja1!F201:F700)</f>
-        <v>#N/A</v>
+      <c r="K200" t="str">
+        <f>VLOOKUP(C200,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Hartford;CT</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -27045,9 +27028,9 @@
       <c r="H201" t="s">
         <v>15</v>
       </c>
-      <c r="K201" t="e" cm="1">
-        <f t="array" ref="K201">VLOOKUP(C201,A201:H501,Hoja1!F202:F701)</f>
-        <v>#N/A</v>
+      <c r="K201" t="str">
+        <f>VLOOKUP(C201,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Miami;FL</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -27075,8 +27058,8 @@
       <c r="H202" t="s">
         <v>15</v>
       </c>
-      <c r="K202" t="e" cm="1">
-        <f t="array" ref="K202">VLOOKUP(C202,A202:H502,Hoja1!F203:F702)</f>
+      <c r="K202" t="e">
+        <f>VLOOKUP(C202,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27105,8 +27088,8 @@
       <c r="H203" t="s">
         <v>15</v>
       </c>
-      <c r="K203" t="e" cm="1">
-        <f t="array" ref="K203">VLOOKUP(C203,A203:H503,Hoja1!F204:F703)</f>
+      <c r="K203" t="e">
+        <f>VLOOKUP(C203,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27135,8 +27118,8 @@
       <c r="H204" t="s">
         <v>15</v>
       </c>
-      <c r="K204" t="e" cm="1">
-        <f t="array" ref="K204">VLOOKUP(C204,A204:H504,Hoja1!F205:F704)</f>
+      <c r="K204" t="e">
+        <f>VLOOKUP(C204,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27165,9 +27148,9 @@
       <c r="H205" t="s">
         <v>15</v>
       </c>
-      <c r="K205" t="e" cm="1">
-        <f t="array" ref="K205">VLOOKUP(C205,A205:H505,Hoja1!F206:F705)</f>
-        <v>#N/A</v>
+      <c r="K205" t="str">
+        <f>VLOOKUP(C205,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Birmingham;AL</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -27195,8 +27178,8 @@
       <c r="H206" t="s">
         <v>15</v>
       </c>
-      <c r="K206" t="e" cm="1">
-        <f t="array" ref="K206">VLOOKUP(C206,A206:H506,Hoja1!F207:F706)</f>
+      <c r="K206" t="e">
+        <f>VLOOKUP(C206,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27225,8 +27208,8 @@
       <c r="H207" t="s">
         <v>15</v>
       </c>
-      <c r="K207" t="e" cm="1">
-        <f t="array" ref="K207">VLOOKUP(C207,A207:H507,Hoja1!F208:F707)</f>
+      <c r="K207" t="e">
+        <f>VLOOKUP(C207,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27255,8 +27238,8 @@
       <c r="H208" t="s">
         <v>15</v>
       </c>
-      <c r="K208" t="e" cm="1">
-        <f t="array" ref="K208">VLOOKUP(C208,A208:H508,Hoja1!F209:F708)</f>
+      <c r="K208" t="e">
+        <f>VLOOKUP(C208,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27285,8 +27268,8 @@
       <c r="H209" t="s">
         <v>15</v>
       </c>
-      <c r="K209" t="e" cm="1">
-        <f t="array" ref="K209">VLOOKUP(C209,A209:H509,Hoja1!F210:F709)</f>
+      <c r="K209" t="e">
+        <f>VLOOKUP(C209,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27315,8 +27298,8 @@
       <c r="H210" t="s">
         <v>15</v>
       </c>
-      <c r="K210" t="e" cm="1">
-        <f t="array" ref="K210">VLOOKUP(C210,A210:H510,Hoja1!F211:F710)</f>
+      <c r="K210" t="e">
+        <f>VLOOKUP(C210,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27345,9 +27328,9 @@
       <c r="H211" t="s">
         <v>15</v>
       </c>
-      <c r="K211" t="e" cm="1">
-        <f t="array" ref="K211">VLOOKUP(C211,A211:H511,Hoja1!F212:F711)</f>
-        <v>#N/A</v>
+      <c r="K211" t="str">
+        <f>VLOOKUP(C211,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Boston;MA</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -27375,8 +27358,8 @@
       <c r="H212" t="s">
         <v>15</v>
       </c>
-      <c r="K212" t="e" cm="1">
-        <f t="array" ref="K212">VLOOKUP(C212,A212:H512,Hoja1!F213:F712)</f>
+      <c r="K212" t="e">
+        <f>VLOOKUP(C212,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27405,9 +27388,9 @@
       <c r="H213" t="s">
         <v>15</v>
       </c>
-      <c r="K213" t="e" cm="1">
-        <f t="array" ref="K213">VLOOKUP(C213,A213:H513,Hoja1!F214:F713)</f>
-        <v>#N/A</v>
+      <c r="K213" t="str">
+        <f>VLOOKUP(C213,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Charlotte;NC</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -27435,8 +27418,8 @@
       <c r="H214" t="s">
         <v>15</v>
       </c>
-      <c r="K214" t="e" cm="1">
-        <f t="array" ref="K214">VLOOKUP(C214,A214:H514,Hoja1!F215:F714)</f>
+      <c r="K214" t="e">
+        <f>VLOOKUP(C214,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27465,8 +27448,8 @@
       <c r="H215" t="s">
         <v>15</v>
       </c>
-      <c r="K215" t="e" cm="1">
-        <f t="array" ref="K215">VLOOKUP(C215,A215:H515,Hoja1!F216:F715)</f>
+      <c r="K215" t="e">
+        <f>VLOOKUP(C215,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27495,8 +27478,8 @@
       <c r="H216" t="s">
         <v>15</v>
       </c>
-      <c r="K216" t="e" cm="1">
-        <f t="array" ref="K216">VLOOKUP(C216,A216:H516,Hoja1!F217:F716)</f>
+      <c r="K216" t="e">
+        <f>VLOOKUP(C216,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27525,8 +27508,8 @@
       <c r="H217" t="s">
         <v>15</v>
       </c>
-      <c r="K217" t="e" cm="1">
-        <f t="array" ref="K217">VLOOKUP(C217,A217:H517,Hoja1!F218:F717)</f>
+      <c r="K217" t="e">
+        <f>VLOOKUP(C217,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27555,8 +27538,8 @@
       <c r="H218" t="s">
         <v>15</v>
       </c>
-      <c r="K218" t="e" cm="1">
-        <f t="array" ref="K218">VLOOKUP(C218,A218:H518,Hoja1!F219:F718)</f>
+      <c r="K218" t="e">
+        <f>VLOOKUP(C218,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27585,8 +27568,8 @@
       <c r="H219" t="s">
         <v>15</v>
       </c>
-      <c r="K219" t="e" cm="1">
-        <f t="array" ref="K219">VLOOKUP(C219,A219:H519,Hoja1!F220:F719)</f>
+      <c r="K219" t="e">
+        <f>VLOOKUP(C219,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27615,8 +27598,8 @@
       <c r="H220" t="s">
         <v>15</v>
       </c>
-      <c r="K220" t="e" cm="1">
-        <f t="array" ref="K220">VLOOKUP(C220,A220:H520,Hoja1!F221:F720)</f>
+      <c r="K220" t="e">
+        <f>VLOOKUP(C220,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27645,8 +27628,8 @@
       <c r="H221" t="s">
         <v>15</v>
       </c>
-      <c r="K221" t="e" cm="1">
-        <f t="array" ref="K221">VLOOKUP(C221,A221:H521,Hoja1!F222:F721)</f>
+      <c r="K221" t="e">
+        <f>VLOOKUP(C221,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27675,8 +27658,8 @@
       <c r="H222" t="s">
         <v>15</v>
       </c>
-      <c r="K222" t="e" cm="1">
-        <f t="array" ref="K222">VLOOKUP(C222,A222:H522,Hoja1!F223:F722)</f>
+      <c r="K222" t="e">
+        <f>VLOOKUP(C222,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27705,8 +27688,8 @@
       <c r="H223" t="s">
         <v>15</v>
       </c>
-      <c r="K223" t="e" cm="1">
-        <f t="array" ref="K223">VLOOKUP(C223,A223:H523,Hoja1!F224:F723)</f>
+      <c r="K223" t="e">
+        <f>VLOOKUP(C223,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27735,8 +27718,8 @@
       <c r="H224" t="s">
         <v>15</v>
       </c>
-      <c r="K224" t="e" cm="1">
-        <f t="array" ref="K224">VLOOKUP(C224,A224:H524,Hoja1!F225:F724)</f>
+      <c r="K224" t="e">
+        <f>VLOOKUP(C224,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27765,8 +27748,8 @@
       <c r="H225" t="s">
         <v>15</v>
       </c>
-      <c r="K225" t="e" cm="1">
-        <f t="array" ref="K225">VLOOKUP(C225,A225:H525,Hoja1!F226:F725)</f>
+      <c r="K225" t="e">
+        <f>VLOOKUP(C225,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27795,8 +27778,8 @@
       <c r="H226" t="s">
         <v>15</v>
       </c>
-      <c r="K226" t="e" cm="1">
-        <f t="array" ref="K226">VLOOKUP(C226,A226:H526,Hoja1!F227:F726)</f>
+      <c r="K226" t="e">
+        <f>VLOOKUP(C226,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27825,8 +27808,8 @@
       <c r="H227" t="s">
         <v>15</v>
       </c>
-      <c r="K227" t="e" cm="1">
-        <f t="array" ref="K227">VLOOKUP(C227,A227:H527,Hoja1!F228:F727)</f>
+      <c r="K227" t="e">
+        <f>VLOOKUP(C227,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27855,8 +27838,8 @@
       <c r="H228" t="s">
         <v>15</v>
       </c>
-      <c r="K228" t="e" cm="1">
-        <f t="array" ref="K228">VLOOKUP(C228,A228:H528,Hoja1!F229:F728)</f>
+      <c r="K228" t="e">
+        <f>VLOOKUP(C228,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27885,9 +27868,9 @@
       <c r="H229" t="s">
         <v>15</v>
       </c>
-      <c r="K229" t="e" cm="1">
-        <f t="array" ref="K229">VLOOKUP(C229,A229:H529,Hoja1!F230:F729)</f>
-        <v>#N/A</v>
+      <c r="K229" t="str">
+        <f>VLOOKUP(C229,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Norman;OK</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -27915,8 +27898,8 @@
       <c r="H230" t="s">
         <v>15</v>
       </c>
-      <c r="K230" t="e" cm="1">
-        <f t="array" ref="K230">VLOOKUP(C230,A230:H530,Hoja1!F231:F730)</f>
+      <c r="K230" t="e">
+        <f>VLOOKUP(C230,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27945,8 +27928,8 @@
       <c r="H231" t="s">
         <v>15</v>
       </c>
-      <c r="K231" t="e" cm="1">
-        <f t="array" ref="K231">VLOOKUP(C231,A231:H531,Hoja1!F232:F731)</f>
+      <c r="K231" t="e">
+        <f>VLOOKUP(C231,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27975,8 +27958,8 @@
       <c r="H232" t="s">
         <v>15</v>
       </c>
-      <c r="K232" t="e" cm="1">
-        <f t="array" ref="K232">VLOOKUP(C232,A232:H532,Hoja1!F233:F732)</f>
+      <c r="K232" t="e">
+        <f>VLOOKUP(C232,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28005,8 +27988,8 @@
       <c r="H233" t="s">
         <v>15</v>
       </c>
-      <c r="K233" t="e" cm="1">
-        <f t="array" ref="K233">VLOOKUP(C233,A233:H533,Hoja1!F234:F733)</f>
+      <c r="K233" t="e">
+        <f>VLOOKUP(C233,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28035,8 +28018,8 @@
       <c r="H234" t="s">
         <v>15</v>
       </c>
-      <c r="K234" t="e" cm="1">
-        <f t="array" ref="K234">VLOOKUP(C234,A234:H534,Hoja1!F235:F734)</f>
+      <c r="K234" t="e">
+        <f>VLOOKUP(C234,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28065,9 +28048,9 @@
       <c r="H235" t="s">
         <v>15</v>
       </c>
-      <c r="K235" t="e" cm="1">
-        <f t="array" ref="K235">VLOOKUP(C235,A235:H535,Hoja1!F236:F735)</f>
-        <v>#N/A</v>
+      <c r="K235" t="str">
+        <f>VLOOKUP(C235,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Rochester;NY</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -28095,8 +28078,8 @@
       <c r="H236" t="s">
         <v>15</v>
       </c>
-      <c r="K236" t="e" cm="1">
-        <f t="array" ref="K236">VLOOKUP(C236,A236:H536,Hoja1!F237:F736)</f>
+      <c r="K236" t="e">
+        <f>VLOOKUP(C236,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28125,8 +28108,8 @@
       <c r="H237" t="s">
         <v>15</v>
       </c>
-      <c r="K237" t="e" cm="1">
-        <f t="array" ref="K237">VLOOKUP(C237,A237:H537,Hoja1!F238:F737)</f>
+      <c r="K237" t="e">
+        <f>VLOOKUP(C237,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28155,8 +28138,8 @@
       <c r="H238" t="s">
         <v>15</v>
       </c>
-      <c r="K238" t="e" cm="1">
-        <f t="array" ref="K238">VLOOKUP(C238,A238:H538,Hoja1!F239:F738)</f>
+      <c r="K238" t="e">
+        <f>VLOOKUP(C238,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28185,8 +28168,8 @@
       <c r="H239" t="s">
         <v>15</v>
       </c>
-      <c r="K239" t="e" cm="1">
-        <f t="array" ref="K239">VLOOKUP(C239,A239:H539,Hoja1!F240:F739)</f>
+      <c r="K239" t="e">
+        <f>VLOOKUP(C239,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28215,9 +28198,9 @@
       <c r="H240" t="s">
         <v>15</v>
       </c>
-      <c r="K240" t="e" cm="1">
-        <f t="array" ref="K240">VLOOKUP(C240,A240:H540,Hoja1!F241:F740)</f>
-        <v>#N/A</v>
+      <c r="K240" t="str">
+        <f>VLOOKUP(C240,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Salt Lake City;UT</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -28245,9 +28228,9 @@
       <c r="H241" t="s">
         <v>15</v>
       </c>
-      <c r="K241" t="e" cm="1">
-        <f t="array" ref="K241">VLOOKUP(C241,A241:H541,Hoja1!F242:F741)</f>
-        <v>#N/A</v>
+      <c r="K241" t="str">
+        <f>VLOOKUP(C241,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Scranton;PA</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -28275,8 +28258,8 @@
       <c r="H242" t="s">
         <v>15</v>
       </c>
-      <c r="K242" t="e" cm="1">
-        <f t="array" ref="K242">VLOOKUP(C242,A242:H542,Hoja1!F243:F742)</f>
+      <c r="K242" t="e">
+        <f>VLOOKUP(C242,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28305,8 +28288,8 @@
       <c r="H243" t="s">
         <v>15</v>
       </c>
-      <c r="K243" t="e" cm="1">
-        <f t="array" ref="K243">VLOOKUP(C243,A243:H543,Hoja1!F244:F743)</f>
+      <c r="K243" t="e">
+        <f>VLOOKUP(C243,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28335,8 +28318,8 @@
       <c r="H244" t="s">
         <v>15</v>
       </c>
-      <c r="K244" t="e" cm="1">
-        <f t="array" ref="K244">VLOOKUP(C244,A244:H544,Hoja1!F245:F744)</f>
+      <c r="K244" t="e">
+        <f>VLOOKUP(C244,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28365,8 +28348,8 @@
       <c r="H245" t="s">
         <v>15</v>
       </c>
-      <c r="K245" t="e" cm="1">
-        <f t="array" ref="K245">VLOOKUP(C245,A245:H545,Hoja1!F246:F745)</f>
+      <c r="K245" t="e">
+        <f>VLOOKUP(C245,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28395,8 +28378,8 @@
       <c r="H246" t="s">
         <v>15</v>
       </c>
-      <c r="K246" t="e" cm="1">
-        <f t="array" ref="K246">VLOOKUP(C246,A246:H546,Hoja1!F247:F746)</f>
+      <c r="K246" t="e">
+        <f>VLOOKUP(C246,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28425,8 +28408,8 @@
       <c r="H247" t="s">
         <v>15</v>
       </c>
-      <c r="K247" t="e" cm="1">
-        <f t="array" ref="K247">VLOOKUP(C247,A247:H547,Hoja1!F248:F747)</f>
+      <c r="K247" t="e">
+        <f>VLOOKUP(C247,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28455,8 +28438,8 @@
       <c r="H248" t="s">
         <v>15</v>
       </c>
-      <c r="K248" t="e" cm="1">
-        <f t="array" ref="K248">VLOOKUP(C248,A248:H548,Hoja1!F249:F748)</f>
+      <c r="K248" t="e">
+        <f>VLOOKUP(C248,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28485,8 +28468,8 @@
       <c r="H249" t="s">
         <v>15</v>
       </c>
-      <c r="K249" t="e" cm="1">
-        <f t="array" ref="K249">VLOOKUP(C249,A249:H549,Hoja1!F250:F749)</f>
+      <c r="K249" t="e">
+        <f>VLOOKUP(C249,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28515,9 +28498,9 @@
       <c r="H250" t="s">
         <v>15</v>
       </c>
-      <c r="K250" t="e" cm="1">
-        <f t="array" ref="K250">VLOOKUP(C250,A250:H550,Hoja1!F251:F750)</f>
-        <v>#N/A</v>
+      <c r="K250" t="str">
+        <f>VLOOKUP(C250,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Baltimore;MD</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -28545,8 +28528,8 @@
       <c r="H251" t="s">
         <v>15</v>
       </c>
-      <c r="K251" t="e" cm="1">
-        <f t="array" ref="K251">VLOOKUP(C251,A251:H551,Hoja1!F252:F751)</f>
+      <c r="K251" t="e">
+        <f>VLOOKUP(C251,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28575,9 +28558,9 @@
       <c r="H252" t="s">
         <v>15</v>
       </c>
-      <c r="K252" t="e" cm="1">
-        <f t="array" ref="K252">VLOOKUP(C252,A252:H552,Hoja1!F253:F752)</f>
-        <v>#N/A</v>
+      <c r="K252" t="str">
+        <f>VLOOKUP(C252,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Saint Louis;MO</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -28605,8 +28588,8 @@
       <c r="H253" t="s">
         <v>15</v>
       </c>
-      <c r="K253" t="e" cm="1">
-        <f t="array" ref="K253">VLOOKUP(C253,A253:H553,Hoja1!F254:F753)</f>
+      <c r="K253" t="e">
+        <f>VLOOKUP(C253,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28635,8 +28618,8 @@
       <c r="H254" t="s">
         <v>15</v>
       </c>
-      <c r="K254" t="e" cm="1">
-        <f t="array" ref="K254">VLOOKUP(C254,A254:H554,Hoja1!F255:F754)</f>
+      <c r="K254" t="e">
+        <f>VLOOKUP(C254,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28665,8 +28648,8 @@
       <c r="H255" t="s">
         <v>15</v>
       </c>
-      <c r="K255" t="e" cm="1">
-        <f t="array" ref="K255">VLOOKUP(C255,A255:H555,Hoja1!F256:F755)</f>
+      <c r="K255" t="e">
+        <f>VLOOKUP(C255,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28695,9 +28678,9 @@
       <c r="H256" t="s">
         <v>15</v>
       </c>
-      <c r="K256" t="e" cm="1">
-        <f t="array" ref="K256">VLOOKUP(C256,A256:H556,Hoja1!F257:F756)</f>
-        <v>#N/A</v>
+      <c r="K256" t="str">
+        <f>VLOOKUP(C256,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Fort Wayne;IN</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -28725,8 +28708,8 @@
       <c r="H257" t="s">
         <v>15</v>
       </c>
-      <c r="K257" t="e" cm="1">
-        <f t="array" ref="K257">VLOOKUP(C257,A257:H557,Hoja1!F258:F757)</f>
+      <c r="K257" t="e">
+        <f>VLOOKUP(C257,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28755,8 +28738,8 @@
       <c r="H258" t="s">
         <v>15</v>
       </c>
-      <c r="K258" t="e" cm="1">
-        <f t="array" ref="K258">VLOOKUP(C258,A258:H558,Hoja1!F259:F758)</f>
+      <c r="K258" t="e">
+        <f>VLOOKUP(C258,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28785,8 +28768,8 @@
       <c r="H259" t="s">
         <v>15</v>
       </c>
-      <c r="K259" t="e" cm="1">
-        <f t="array" ref="K259">VLOOKUP(C259,A259:H559,Hoja1!F260:F759)</f>
+      <c r="K259" t="e">
+        <f>VLOOKUP(C259,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28815,8 +28798,8 @@
       <c r="H260" t="s">
         <v>15</v>
       </c>
-      <c r="K260" t="e" cm="1">
-        <f t="array" ref="K260">VLOOKUP(C260,A260:H560,Hoja1!F261:F760)</f>
+      <c r="K260" t="e">
+        <f>VLOOKUP(C260,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28845,8 +28828,8 @@
       <c r="H261" t="s">
         <v>15</v>
       </c>
-      <c r="K261" t="e" cm="1">
-        <f t="array" ref="K261">VLOOKUP(C261,A261:H561,Hoja1!F262:F761)</f>
+      <c r="K261" t="e">
+        <f>VLOOKUP(C261,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28875,9 +28858,9 @@
       <c r="H262" t="s">
         <v>15</v>
       </c>
-      <c r="K262" t="e" cm="1">
-        <f t="array" ref="K262">VLOOKUP(C262,A262:H562,Hoja1!F263:F762)</f>
-        <v>#N/A</v>
+      <c r="K262" t="str">
+        <f>VLOOKUP(C262,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Saint Paul;MN</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -28905,9 +28888,9 @@
       <c r="H263" t="s">
         <v>15</v>
       </c>
-      <c r="K263" t="e" cm="1">
-        <f t="array" ref="K263">VLOOKUP(C263,A263:H563,Hoja1!F264:F763)</f>
-        <v>#N/A</v>
+      <c r="K263" t="str">
+        <f>VLOOKUP(C263,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Flint;MI</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -28935,8 +28918,8 @@
       <c r="H264" t="s">
         <v>15</v>
       </c>
-      <c r="K264" t="e" cm="1">
-        <f t="array" ref="K264">VLOOKUP(C264,A264:H564,Hoja1!F265:F764)</f>
+      <c r="K264" t="e">
+        <f>VLOOKUP(C264,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28965,8 +28948,8 @@
       <c r="H265" t="s">
         <v>15</v>
       </c>
-      <c r="K265" t="e" cm="1">
-        <f t="array" ref="K265">VLOOKUP(C265,A265:H565,Hoja1!F266:F765)</f>
+      <c r="K265" t="e">
+        <f>VLOOKUP(C265,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28995,9 +28978,9 @@
       <c r="H266" t="s">
         <v>15</v>
       </c>
-      <c r="K266" t="e" cm="1">
-        <f t="array" ref="K266">VLOOKUP(C266,A266:H566,Hoja1!F267:F766)</f>
-        <v>#N/A</v>
+      <c r="K266" t="str">
+        <f>VLOOKUP(C266,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Houston;TX</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -29025,9 +29008,9 @@
       <c r="H267" t="s">
         <v>15</v>
       </c>
-      <c r="K267" t="e" cm="1">
-        <f t="array" ref="K267">VLOOKUP(C267,A267:H567,Hoja1!F268:F767)</f>
-        <v>#N/A</v>
+      <c r="K267" t="str">
+        <f>VLOOKUP(C267,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Escondido;CA</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -29055,8 +29038,8 @@
       <c r="H268" t="s">
         <v>15</v>
       </c>
-      <c r="K268" t="e" cm="1">
-        <f t="array" ref="K268">VLOOKUP(C268,A268:H568,Hoja1!F269:F768)</f>
+      <c r="K268" t="e">
+        <f>VLOOKUP(C268,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29085,8 +29068,8 @@
       <c r="H269" t="s">
         <v>15</v>
       </c>
-      <c r="K269" t="e" cm="1">
-        <f t="array" ref="K269">VLOOKUP(C269,A269:H569,Hoja1!F270:F769)</f>
+      <c r="K269" t="e">
+        <f>VLOOKUP(C269,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29115,8 +29098,8 @@
       <c r="H270" t="s">
         <v>15</v>
       </c>
-      <c r="K270" t="e" cm="1">
-        <f t="array" ref="K270">VLOOKUP(C270,A270:H570,Hoja1!F271:F770)</f>
+      <c r="K270" t="e">
+        <f>VLOOKUP(C270,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29145,8 +29128,8 @@
       <c r="H271" t="s">
         <v>15</v>
       </c>
-      <c r="K271" t="e" cm="1">
-        <f t="array" ref="K271">VLOOKUP(C271,A271:H571,Hoja1!F272:F771)</f>
+      <c r="K271" t="e">
+        <f>VLOOKUP(C271,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29175,8 +29158,8 @@
       <c r="H272" t="s">
         <v>15</v>
       </c>
-      <c r="K272" t="e" cm="1">
-        <f t="array" ref="K272">VLOOKUP(C272,A272:H572,Hoja1!F273:F772)</f>
+      <c r="K272" t="e">
+        <f>VLOOKUP(C272,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29205,8 +29188,8 @@
       <c r="H273" t="s">
         <v>15</v>
       </c>
-      <c r="K273" t="e" cm="1">
-        <f t="array" ref="K273">VLOOKUP(C273,A273:H573,Hoja1!F274:F773)</f>
+      <c r="K273" t="e">
+        <f>VLOOKUP(C273,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29235,8 +29218,8 @@
       <c r="H274" t="s">
         <v>15</v>
       </c>
-      <c r="K274" t="e" cm="1">
-        <f t="array" ref="K274">VLOOKUP(C274,A274:H574,Hoja1!F275:F774)</f>
+      <c r="K274" t="e">
+        <f>VLOOKUP(C274,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29265,8 +29248,8 @@
       <c r="H275" t="s">
         <v>15</v>
       </c>
-      <c r="K275" t="e" cm="1">
-        <f t="array" ref="K275">VLOOKUP(C275,A275:H575,Hoja1!F276:F775)</f>
+      <c r="K275" t="e">
+        <f>VLOOKUP(C275,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29295,8 +29278,8 @@
       <c r="H276" t="s">
         <v>15</v>
       </c>
-      <c r="K276" t="e" cm="1">
-        <f t="array" ref="K276">VLOOKUP(C276,A276:H576,Hoja1!F277:F776)</f>
+      <c r="K276" t="e">
+        <f>VLOOKUP(C276,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29325,8 +29308,8 @@
       <c r="H277" t="s">
         <v>15</v>
       </c>
-      <c r="K277" t="e" cm="1">
-        <f t="array" ref="K277">VLOOKUP(C277,A277:H577,Hoja1!F278:F777)</f>
+      <c r="K277" t="e">
+        <f>VLOOKUP(C277,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29355,8 +29338,8 @@
       <c r="H278" t="s">
         <v>15</v>
       </c>
-      <c r="K278" t="e" cm="1">
-        <f t="array" ref="K278">VLOOKUP(C278,A278:H578,Hoja1!F279:F778)</f>
+      <c r="K278" t="e">
+        <f>VLOOKUP(C278,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29385,9 +29368,9 @@
       <c r="H279" t="s">
         <v>15</v>
       </c>
-      <c r="K279" t="e" cm="1">
-        <f t="array" ref="K279">VLOOKUP(C279,A279:H579,Hoja1!F280:F779)</f>
-        <v>#N/A</v>
+      <c r="K279" t="str">
+        <f>VLOOKUP(C279,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Fort Smith;AR</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -29415,9 +29398,9 @@
       <c r="H280" t="s">
         <v>15</v>
       </c>
-      <c r="K280" t="e" cm="1">
-        <f t="array" ref="K280">VLOOKUP(C280,A280:H580,Hoja1!F281:F780)</f>
-        <v>#N/A</v>
+      <c r="K280" t="str">
+        <f>VLOOKUP(C280,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Memphis;TN</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -29445,8 +29428,8 @@
       <c r="H281" t="s">
         <v>15</v>
       </c>
-      <c r="K281" t="e" cm="1">
-        <f t="array" ref="K281">VLOOKUP(C281,A281:H581,Hoja1!F282:F781)</f>
+      <c r="K281" t="e">
+        <f>VLOOKUP(C281,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29475,8 +29458,8 @@
       <c r="H282" t="s">
         <v>15</v>
       </c>
-      <c r="K282" t="e" cm="1">
-        <f t="array" ref="K282">VLOOKUP(C282,A282:H582,Hoja1!F283:F782)</f>
+      <c r="K282" t="e">
+        <f>VLOOKUP(C282,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29505,8 +29488,8 @@
       <c r="H283" t="s">
         <v>15</v>
       </c>
-      <c r="K283" t="e" cm="1">
-        <f t="array" ref="K283">VLOOKUP(C283,A283:H583,Hoja1!F284:F783)</f>
+      <c r="K283" t="e">
+        <f>VLOOKUP(C283,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29535,8 +29518,8 @@
       <c r="H284" t="s">
         <v>15</v>
       </c>
-      <c r="K284" t="e" cm="1">
-        <f t="array" ref="K284">VLOOKUP(C284,A284:H584,Hoja1!F285:F784)</f>
+      <c r="K284" t="e">
+        <f>VLOOKUP(C284,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29565,8 +29548,8 @@
       <c r="H285" t="s">
         <v>15</v>
       </c>
-      <c r="K285" t="e" cm="1">
-        <f t="array" ref="K285">VLOOKUP(C285,A285:H585,Hoja1!F286:F785)</f>
+      <c r="K285" t="e">
+        <f>VLOOKUP(C285,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29595,8 +29578,8 @@
       <c r="H286" t="s">
         <v>15</v>
       </c>
-      <c r="K286" t="e" cm="1">
-        <f t="array" ref="K286">VLOOKUP(C286,A286:H586,Hoja1!F287:F786)</f>
+      <c r="K286" t="e">
+        <f>VLOOKUP(C286,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29625,8 +29608,8 @@
       <c r="H287" t="s">
         <v>15</v>
       </c>
-      <c r="K287" t="e" cm="1">
-        <f t="array" ref="K287">VLOOKUP(C287,A287:H587,Hoja1!F288:F787)</f>
+      <c r="K287" t="e">
+        <f>VLOOKUP(C287,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29655,8 +29638,8 @@
       <c r="H288" t="s">
         <v>15</v>
       </c>
-      <c r="K288" t="e" cm="1">
-        <f t="array" ref="K288">VLOOKUP(C288,A288:H588,Hoja1!F289:F788)</f>
+      <c r="K288" t="e">
+        <f>VLOOKUP(C288,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29685,9 +29668,9 @@
       <c r="H289" t="s">
         <v>15</v>
       </c>
-      <c r="K289" t="e" cm="1">
-        <f t="array" ref="K289">VLOOKUP(C289,A289:H589,Hoja1!F290:F789)</f>
-        <v>#N/A</v>
+      <c r="K289" t="str">
+        <f>VLOOKUP(C289,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Boston;MA</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -29715,8 +29698,8 @@
       <c r="H290" t="s">
         <v>15</v>
       </c>
-      <c r="K290" t="e" cm="1">
-        <f t="array" ref="K290">VLOOKUP(C290,A290:H590,Hoja1!F291:F790)</f>
+      <c r="K290" t="e">
+        <f>VLOOKUP(C290,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29745,9 +29728,9 @@
       <c r="H291" t="s">
         <v>15</v>
       </c>
-      <c r="K291" t="e" cm="1">
-        <f t="array" ref="K291">VLOOKUP(C291,A291:H591,Hoja1!F292:F791)</f>
-        <v>#N/A</v>
+      <c r="K291" t="str">
+        <f>VLOOKUP(C291,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Cincinnati;OH</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -29775,9 +29758,9 @@
       <c r="H292" t="s">
         <v>15</v>
       </c>
-      <c r="K292" t="e" cm="1">
-        <f t="array" ref="K292">VLOOKUP(C292,A292:H592,Hoja1!F293:F792)</f>
-        <v>#N/A</v>
+      <c r="K292" t="str">
+        <f>VLOOKUP(C292,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Memphis;TN</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -29805,9 +29788,9 @@
       <c r="H293" t="s">
         <v>15</v>
       </c>
-      <c r="K293" t="e" cm="1">
-        <f t="array" ref="K293">VLOOKUP(C293,A293:H593,Hoja1!F294:F793)</f>
-        <v>#N/A</v>
+      <c r="K293" t="str">
+        <f>VLOOKUP(C293,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Colorado Springs;CO</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -29835,8 +29818,8 @@
       <c r="H294" t="s">
         <v>15</v>
       </c>
-      <c r="K294" t="e" cm="1">
-        <f t="array" ref="K294">VLOOKUP(C294,A294:H594,Hoja1!F295:F794)</f>
+      <c r="K294" t="e">
+        <f>VLOOKUP(C294,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29865,8 +29848,8 @@
       <c r="H295" t="s">
         <v>15</v>
       </c>
-      <c r="K295" t="e" cm="1">
-        <f t="array" ref="K295">VLOOKUP(C295,A295:H595,Hoja1!F296:F795)</f>
+      <c r="K295" t="e">
+        <f>VLOOKUP(C295,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29895,9 +29878,9 @@
       <c r="H296" t="s">
         <v>15</v>
       </c>
-      <c r="K296" t="e" cm="1">
-        <f t="array" ref="K296">VLOOKUP(C296,A296:H596,Hoja1!F297:F796)</f>
-        <v>#N/A</v>
+      <c r="K296" t="str">
+        <f>VLOOKUP(C296,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Rochester;NY</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -29925,9 +29908,9 @@
       <c r="H297" t="s">
         <v>15</v>
       </c>
-      <c r="K297" t="e" cm="1">
-        <f t="array" ref="K297">VLOOKUP(C297,A297:H597,Hoja1!F298:F797)</f>
-        <v>#N/A</v>
+      <c r="K297" t="str">
+        <f>VLOOKUP(C297,Hoja1!$F:$H, 2, FALSE)</f>
+        <v>Boston;MA</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -29955,8 +29938,8 @@
       <c r="H298" t="s">
         <v>15</v>
       </c>
-      <c r="K298" t="e" cm="1">
-        <f t="array" ref="K298">VLOOKUP(C298,A298:H598,Hoja1!F299:F798)</f>
+      <c r="K298" t="e">
+        <f>VLOOKUP(C298,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29985,8 +29968,8 @@
       <c r="H299" t="s">
         <v>15</v>
       </c>
-      <c r="K299" t="e" cm="1">
-        <f t="array" ref="K299">VLOOKUP(C299,A299:H599,Hoja1!F300:F799)</f>
+      <c r="K299" t="e">
+        <f>VLOOKUP(C299,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -30015,8 +29998,8 @@
       <c r="H300" t="s">
         <v>15</v>
       </c>
-      <c r="K300" t="e" cm="1">
-        <f t="array" ref="K300">VLOOKUP(C300,A300:H600,Hoja1!F301:F800)</f>
+      <c r="K300" t="e">
+        <f>VLOOKUP(C300,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -30045,12 +30028,13 @@
       <c r="H301" t="s">
         <v>15</v>
       </c>
-      <c r="K301" t="e" cm="1">
-        <f t="array" ref="K301">VLOOKUP(C301,A301:H601,Hoja1!F302:F801)</f>
+      <c r="K301" t="e">
+        <f>VLOOKUP(C301,Hoja1!$F:$H, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H301" xr:uid="{D2C9EC7C-801C-4F0A-A55B-2907C798F0FA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>